--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H2">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I2">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J2">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N2">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P2">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q2">
-        <v>19.46515315352889</v>
+        <v>264.0786539368607</v>
       </c>
       <c r="R2">
-        <v>175.18637838176</v>
+        <v>2376.707885431746</v>
       </c>
       <c r="S2">
-        <v>0.02922772592985506</v>
+        <v>0.1293839411987164</v>
       </c>
       <c r="T2">
-        <v>0.02922772592985505</v>
+        <v>0.1293839411987164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H3">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I3">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J3">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N3">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P3">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q3">
-        <v>64.31362334393111</v>
+        <v>886.5028776867309</v>
       </c>
       <c r="R3">
-        <v>578.8226100953799</v>
+        <v>7978.525899180579</v>
       </c>
       <c r="S3">
-        <v>0.09656954362630142</v>
+        <v>0.434337400956825</v>
       </c>
       <c r="T3">
-        <v>0.09656954362630141</v>
+        <v>0.434337400956825</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H4">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I4">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J4">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>17.540158</v>
       </c>
       <c r="O4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P4">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q4">
-        <v>24.23695134627111</v>
+        <v>334.0836046496849</v>
       </c>
       <c r="R4">
-        <v>218.13256211644</v>
+        <v>3006.752441847164</v>
       </c>
       <c r="S4">
-        <v>0.03639277665768674</v>
+        <v>0.1636824969192127</v>
       </c>
       <c r="T4">
-        <v>0.03639277665768673</v>
+        <v>0.1636824969192127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>20.318999</v>
       </c>
       <c r="I5">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J5">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N5">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P5">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q5">
-        <v>31.80336948012977</v>
+        <v>31.30195302647366</v>
       </c>
       <c r="R5">
-        <v>286.230325321168</v>
+        <v>281.7175772382629</v>
       </c>
       <c r="S5">
-        <v>0.04775406386374263</v>
+        <v>0.01533622649693818</v>
       </c>
       <c r="T5">
-        <v>0.04775406386374263</v>
+        <v>0.01533622649693818</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>20.318999</v>
       </c>
       <c r="I6">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J6">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N6">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P6">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q6">
         <v>105.0795701261732</v>
       </c>
       <c r="R6">
-        <v>945.7161311355588</v>
+        <v>945.716131135559</v>
       </c>
       <c r="S6">
-        <v>0.1577812849583453</v>
+        <v>0.05148318018025723</v>
       </c>
       <c r="T6">
-        <v>0.1577812849583453</v>
+        <v>0.05148318018025723</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>20.318999</v>
       </c>
       <c r="I7">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J7">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>17.540158</v>
       </c>
       <c r="O7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P7">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q7">
         <v>39.59982809576022</v>
@@ -880,10 +880,10 @@
         <v>356.3984528618419</v>
       </c>
       <c r="S7">
-        <v>0.05946076628954872</v>
+        <v>0.01940172654411564</v>
       </c>
       <c r="T7">
-        <v>0.05946076628954872</v>
+        <v>0.01940172654411564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>43.921413</v>
       </c>
       <c r="I8">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J8">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.695610666666666</v>
+        <v>4.621579</v>
       </c>
       <c r="N8">
-        <v>14.086832</v>
+        <v>13.864737</v>
       </c>
       <c r="O8">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="P8">
-        <v>0.1802066564018305</v>
+        <v>0.1778708528171788</v>
       </c>
       <c r="Q8">
-        <v>68.745951792624</v>
+        <v>67.66209332370899</v>
       </c>
       <c r="R8">
-        <v>618.713566133616</v>
+        <v>608.958839913381</v>
       </c>
       <c r="S8">
-        <v>0.1032248666082328</v>
+        <v>0.0331506851215242</v>
       </c>
       <c r="T8">
-        <v>0.1032248666082328</v>
+        <v>0.03315068512152421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.921413</v>
       </c>
       <c r="I9">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J9">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,13 +989,13 @@
         <v>15.51448033333333</v>
       </c>
       <c r="N9">
-        <v>46.54344099999999</v>
+        <v>46.543441</v>
       </c>
       <c r="O9">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="P9">
-        <v>0.5954098039960916</v>
+        <v>0.5971062807549863</v>
       </c>
       <c r="Q9">
         <v>227.139299400237</v>
@@ -1004,10 +1004,10 @@
         <v>2044.253694602133</v>
       </c>
       <c r="S9">
-        <v>0.3410589754114448</v>
+        <v>0.111285699617904</v>
       </c>
       <c r="T9">
-        <v>0.3410589754114449</v>
+        <v>0.111285699617904</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.921413</v>
       </c>
       <c r="I10">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J10">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>17.540158</v>
       </c>
       <c r="O10">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="P10">
-        <v>0.2243835396020779</v>
+        <v>0.2250228664278349</v>
       </c>
       <c r="Q10">
         <v>85.59872484480599</v>
@@ -1066,10 +1066,10 @@
         <v>770.3885236032539</v>
       </c>
       <c r="S10">
-        <v>0.1285299966548424</v>
+        <v>0.04193864296450655</v>
       </c>
       <c r="T10">
-        <v>0.1285299966548425</v>
+        <v>0.04193864296450656</v>
       </c>
     </row>
   </sheetData>
